--- a/config_7.27/activity_exchange_server.xlsx
+++ b/config_7.27/activity_exchange_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -23,26 +28,28 @@
     <author>yang yang</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>可能是道具、积分活动名称、等等</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1 ：道具物品
@@ -116,6 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,6 +134,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,6 +165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -166,6 +176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -176,6 +187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,6 +305,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -303,6 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -622,6 +636,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -632,6 +647,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -650,6 +666,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -660,6 +677,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -684,6 +702,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -694,6 +713,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -712,6 +732,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -722,6 +743,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -740,6 +762,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -750,6 +773,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -765,6 +789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -775,6 +800,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -793,6 +819,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,6 +830,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -887,6 +915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -897,6 +926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,6 +939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -919,6 +950,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -931,6 +963,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,6 +974,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1151,6 +1185,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1161,6 +1196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1182,6 +1218,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1317,6 +1354,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1327,6 +1365,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,6 +1381,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1352,6 +1392,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1367,6 +1408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1377,6 +1419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1389,6 +1432,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1399,6 +1443,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1414,6 +1459,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1424,6 +1470,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1439,6 +1486,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1449,6 +1497,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1464,6 +1513,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,6 +1524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1486,6 +1537,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1496,6 +1548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1506,6 +1559,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1518,6 +1572,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1528,6 +1583,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1618,6 +1674,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1628,6 +1685,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1662,14 +1720,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,23 +1733,27 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1705,12 +1761,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1718,166 +1775,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,19 +1816,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,7 +1840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,7 +1852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1932,176 +1862,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2135,254 +1897,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2415,25 +1935,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2469,7 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2491,7 +2011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2546,66 +2066,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2863,18 +2339,18 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2896,7 +2372,7 @@
     <col min="18" max="16384" width="11" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:13">
+    <row r="1" spans="1:17" ht="27" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:17">
+    <row r="2" spans="1:17" ht="16.5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2974,7 +2450,7 @@
       <c r="P2" s="50"/>
       <c r="Q2" s="50"/>
     </row>
-    <row r="3" ht="16.5" spans="1:17">
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3009,7 +2485,7 @@
       <c r="P3" s="50"/>
       <c r="Q3" s="50"/>
     </row>
-    <row r="4" ht="16.5" spans="1:17">
+    <row r="4" spans="1:17" ht="16.5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3043,7 +2519,7 @@
       <c r="P4" s="50"/>
       <c r="Q4" s="50"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3075,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:17">
+    <row r="6" spans="1:17" ht="16.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3109,7 +2585,7 @@
       <c r="P6" s="50"/>
       <c r="Q6" s="50"/>
     </row>
-    <row r="7" ht="16.5" spans="1:17">
+    <row r="7" spans="1:17" ht="16.5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3143,7 +2619,7 @@
       <c r="P7" s="50"/>
       <c r="Q7" s="50"/>
     </row>
-    <row r="8" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="8" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3177,7 +2653,7 @@
       <c r="P8" s="51"/>
       <c r="Q8" s="51"/>
     </row>
-    <row r="9" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="9" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3211,7 +2687,7 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="51"/>
     </row>
-    <row r="10" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="10" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3245,7 +2721,7 @@
       <c r="P10" s="51"/>
       <c r="Q10" s="51"/>
     </row>
-    <row r="11" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="11" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3279,7 +2755,7 @@
       <c r="P11" s="51"/>
       <c r="Q11" s="51"/>
     </row>
-    <row r="12" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="12" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3313,7 +2789,7 @@
       <c r="P12" s="51"/>
       <c r="Q12" s="51"/>
     </row>
-    <row r="13" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="13" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3347,7 +2823,7 @@
       <c r="P13" s="51"/>
       <c r="Q13" s="51"/>
     </row>
-    <row r="14" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="14" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3381,7 +2857,7 @@
       <c r="P14" s="51"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="15" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3415,7 +2891,7 @@
       <c r="P15" s="51"/>
       <c r="Q15" s="51"/>
     </row>
-    <row r="16" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="16" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3449,7 +2925,7 @@
       <c r="P16" s="51"/>
       <c r="Q16" s="51"/>
     </row>
-    <row r="17" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="17" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3483,7 +2959,7 @@
       <c r="P17" s="51"/>
       <c r="Q17" s="51"/>
     </row>
-    <row r="18" s="33" customFormat="1" spans="1:12">
+    <row r="18" spans="1:17" s="33" customFormat="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3513,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="32" customFormat="1" spans="1:12">
+    <row r="19" spans="1:17" s="32" customFormat="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3545,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="33" customFormat="1" spans="1:12">
+    <row r="20" spans="1:17" s="33" customFormat="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3575,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="32" customFormat="1" spans="1:12">
+    <row r="21" spans="1:17" s="32" customFormat="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3607,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="22" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3639,7 +3115,7 @@
       <c r="P22" s="51"/>
       <c r="Q22" s="51"/>
     </row>
-    <row r="23" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="23" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3671,7 +3147,7 @@
       <c r="P23" s="51"/>
       <c r="Q23" s="51"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="24" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3703,7 +3179,7 @@
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" s="32" customFormat="1" spans="1:12">
+    <row r="25" spans="1:17" s="32" customFormat="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3731,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="32" customFormat="1" spans="1:12">
+    <row r="26" spans="1:17" s="32" customFormat="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3759,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="32" customFormat="1" spans="1:12">
+    <row r="27" spans="1:17" s="32" customFormat="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3789,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="32" customFormat="1" spans="1:12">
+    <row r="28" spans="1:17" s="32" customFormat="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3819,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="32" customFormat="1" spans="1:12">
+    <row r="29" spans="1:17" s="32" customFormat="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3849,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="32" customFormat="1" spans="1:12">
+    <row r="30" spans="1:17" s="32" customFormat="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3879,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="33" customFormat="1" spans="1:12">
+    <row r="31" spans="1:17" s="33" customFormat="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3909,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="32" customFormat="1" spans="1:12">
+    <row r="32" spans="1:17" s="32" customFormat="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3941,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" s="33" customFormat="1" spans="1:12">
+    <row r="33" spans="1:17" s="33" customFormat="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3971,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="32" customFormat="1" spans="1:12">
+    <row r="34" spans="1:17" s="32" customFormat="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4003,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" s="32" customFormat="1" spans="1:12">
+    <row r="35" spans="1:17" s="32" customFormat="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4034,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="32" customFormat="1" spans="1:12">
+    <row r="36" spans="1:17" s="32" customFormat="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4066,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="37" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4098,7 +3574,7 @@
       <c r="P37" s="51"/>
       <c r="Q37" s="51"/>
     </row>
-    <row r="38" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="38" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -4130,7 +3606,7 @@
       <c r="P38" s="51"/>
       <c r="Q38" s="51"/>
     </row>
-    <row r="39" s="32" customFormat="1" ht="16.5" spans="1:17">
+    <row r="39" spans="1:17" s="32" customFormat="1" ht="16.5">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -4162,7 +3638,7 @@
       <c r="P39" s="51"/>
       <c r="Q39" s="51"/>
     </row>
-    <row r="40" s="32" customFormat="1" spans="1:12">
+    <row r="40" spans="1:17" s="32" customFormat="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -4194,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" s="32" customFormat="1" spans="1:12">
+    <row r="41" spans="1:17" s="32" customFormat="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -4226,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" s="32" customFormat="1" spans="1:12">
+    <row r="42" spans="1:17" s="32" customFormat="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -4258,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="32" customFormat="1" spans="1:12">
+    <row r="43" spans="1:17" s="32" customFormat="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4290,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="34" customFormat="1" spans="1:12">
+    <row r="44" spans="1:17" s="34" customFormat="1">
       <c r="A44" s="43">
         <v>43</v>
       </c>
@@ -4320,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="34" customFormat="1" spans="1:12">
+    <row r="45" spans="1:17" s="34" customFormat="1">
       <c r="A45" s="43">
         <v>44</v>
       </c>
@@ -4350,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" s="32" customFormat="1" spans="1:12">
+    <row r="46" spans="1:17" s="32" customFormat="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -4382,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" s="32" customFormat="1" spans="1:12">
+    <row r="47" spans="1:17" s="32" customFormat="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -4414,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" s="32" customFormat="1" spans="1:12">
+    <row r="48" spans="1:17" s="32" customFormat="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -4446,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" s="32" customFormat="1" spans="1:12">
+    <row r="49" spans="1:12" s="32" customFormat="1">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -4478,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" s="32" customFormat="1" spans="1:12">
+    <row r="50" spans="1:12" s="32" customFormat="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -4510,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" s="32" customFormat="1" spans="1:12">
+    <row r="51" spans="1:12" s="32" customFormat="1">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -4629,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" s="35" customFormat="1" spans="1:12">
+    <row r="55" spans="1:12" s="35" customFormat="1">
       <c r="A55" s="35">
         <v>54</v>
       </c>
@@ -4716,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" s="36" customFormat="1" spans="1:12">
+    <row r="58" spans="1:12" s="36" customFormat="1">
       <c r="A58" s="36">
         <v>57</v>
       </c>
@@ -4732,8 +4208,6 @@
       <c r="E58" s="36">
         <v>1627919999</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
       <c r="H58" s="48" t="s">
         <v>39</v>
       </c>
@@ -4779,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" s="36" customFormat="1" spans="1:12">
+    <row r="60" spans="1:12" s="36" customFormat="1">
       <c r="A60" s="36">
         <v>59</v>
       </c>
@@ -4812,15 +4286,15 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -4828,7 +4302,7 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
@@ -4837,7 +4311,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:4">
+    <row r="1" spans="1:7" ht="36" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>84</v>
       </c>
@@ -4851,7 +4325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:4">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4865,7 +4339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4879,7 +4353,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4893,7 +4367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4904,7 +4378,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4915,7 +4389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4926,7 +4400,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4937,7 +4411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4948,7 +4422,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" spans="1:3">
+    <row r="10" spans="1:7" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -4959,7 +4433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="1:3">
+    <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -4970,7 +4444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" spans="1:3">
+    <row r="12" spans="1:7" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -4981,7 +4455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" spans="1:3">
+    <row r="13" spans="1:7" s="5" customFormat="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -4992,7 +4466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" spans="1:7">
+    <row r="14" spans="1:7" s="5" customFormat="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -5007,7 +4481,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:3">
+    <row r="15" spans="1:7" s="5" customFormat="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -5018,7 +4492,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" spans="1:7">
+    <row r="16" spans="1:7" s="5" customFormat="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -5033,7 +4507,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" s="5" customFormat="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -5044,7 +4518,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="5" customFormat="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -5055,7 +4529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="5" customFormat="1">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -5066,7 +4540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" spans="1:3">
+    <row r="20" spans="1:3" s="5" customFormat="1">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -5077,7 +4551,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" spans="1:3">
+    <row r="21" spans="1:3" s="5" customFormat="1">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -5088,7 +4562,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" spans="1:3">
+    <row r="22" spans="1:3" s="5" customFormat="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -5099,7 +4573,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:3">
+    <row r="23" spans="1:3" s="5" customFormat="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -5110,7 +4584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="5" customFormat="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -5121,7 +4595,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" s="5" customFormat="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -5132,7 +4606,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:3">
+    <row r="26" spans="1:3" s="5" customFormat="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -5143,7 +4617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:3">
+    <row r="27" spans="1:3" s="5" customFormat="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -5154,7 +4628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" s="5" customFormat="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -5165,7 +4639,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" s="5" customFormat="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -5176,7 +4650,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" s="5" customFormat="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -5187,7 +4661,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:3">
+    <row r="31" spans="1:3" s="5" customFormat="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -5198,7 +4672,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" spans="1:3">
+    <row r="32" spans="1:3" s="5" customFormat="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -5209,7 +4683,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="1:3">
+    <row r="33" spans="1:3" s="5" customFormat="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -5220,7 +4694,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:3">
+    <row r="34" spans="1:3" s="5" customFormat="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -5231,7 +4705,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:3">
+    <row r="35" spans="1:3" s="5" customFormat="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -5242,7 +4716,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" s="29" customFormat="1" spans="1:3">
+    <row r="36" spans="1:3" s="29" customFormat="1">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -5253,7 +4727,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" s="29" customFormat="1" spans="1:3">
+    <row r="37" spans="1:3" s="29" customFormat="1">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -5364,23 +4838,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:P393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B363" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E363" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A366" sqref="A366"/>
+      <selection pane="bottomRight" activeCell="P379" sqref="P379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5399,7 +4872,7 @@
     <col min="17" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" ht="36" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>144</v>
       </c>
@@ -5501,7 +4974,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5524,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5544,7 +5017,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5567,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5590,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5613,7 +5086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5639,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5662,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5685,7 +5158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5709,7 +5182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5734,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5759,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5783,7 +5256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5906,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -6030,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:10">
+    <row r="26" spans="1:10" s="5" customFormat="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6055,7 +5528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" spans="1:10">
+    <row r="27" spans="1:10" s="5" customFormat="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6080,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" spans="1:10">
+    <row r="28" spans="1:10" s="5" customFormat="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6105,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" spans="1:8">
+    <row r="29" spans="1:10" s="5" customFormat="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6129,7 +5602,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:10">
+    <row r="30" spans="1:10" s="5" customFormat="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6156,7 +5629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:10">
+    <row r="31" spans="1:10" s="5" customFormat="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6183,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" spans="1:10">
+    <row r="32" spans="1:10" s="5" customFormat="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6210,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" s="5" customFormat="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6237,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:10">
+    <row r="34" spans="1:10" s="5" customFormat="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -6262,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:10">
+    <row r="35" spans="1:10" s="5" customFormat="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -6287,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" s="5" customFormat="1" spans="1:10">
+    <row r="36" spans="1:10" s="5" customFormat="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -6312,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" spans="1:8">
+    <row r="37" spans="1:10" s="5" customFormat="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -6336,7 +5809,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="1" spans="1:10">
+    <row r="38" spans="1:10" s="5" customFormat="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -6363,7 +5836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" s="5" customFormat="1" spans="1:10">
+    <row r="39" spans="1:10" s="5" customFormat="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -6390,7 +5863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" s="5" customFormat="1" spans="1:10">
+    <row r="40" spans="1:10" s="5" customFormat="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -6417,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" s="5" customFormat="1" spans="1:10">
+    <row r="41" spans="1:10" s="5" customFormat="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -6444,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="5" customFormat="1" spans="1:10">
+    <row r="42" spans="1:10" s="5" customFormat="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -6469,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" s="5" customFormat="1" spans="1:10">
+    <row r="43" spans="1:10" s="5" customFormat="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -6494,7 +5967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" s="5" customFormat="1" spans="1:10">
+    <row r="44" spans="1:10" s="5" customFormat="1">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -6519,7 +5992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" s="5" customFormat="1" spans="1:8">
+    <row r="45" spans="1:10" s="5" customFormat="1">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -6543,7 +6016,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" s="5" customFormat="1" spans="1:10">
+    <row r="46" spans="1:10" s="5" customFormat="1">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -6570,7 +6043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" s="5" customFormat="1" spans="1:10">
+    <row r="47" spans="1:10" s="5" customFormat="1">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -6597,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" s="5" customFormat="1" spans="1:10">
+    <row r="48" spans="1:10" s="5" customFormat="1">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -6624,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="5" customFormat="1" spans="1:10">
+    <row r="49" spans="1:10" s="5" customFormat="1">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -6651,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="1" spans="1:10">
+    <row r="50" spans="1:10" s="5" customFormat="1">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -6676,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:10">
+    <row r="51" spans="1:10" s="5" customFormat="1">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -6701,7 +6174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" s="5" customFormat="1" spans="1:10">
+    <row r="52" spans="1:10" s="5" customFormat="1">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -6726,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" s="5" customFormat="1" spans="1:8">
+    <row r="53" spans="1:10" s="5" customFormat="1">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -6750,7 +6223,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" s="5" customFormat="1" spans="1:10">
+    <row r="54" spans="1:10" s="5" customFormat="1">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -6777,7 +6250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" s="5" customFormat="1" spans="1:10">
+    <row r="55" spans="1:10" s="5" customFormat="1">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -6804,7 +6277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:10">
+    <row r="56" spans="1:10" s="5" customFormat="1">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -6831,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" s="5" customFormat="1" spans="1:10">
+    <row r="57" spans="1:10" s="5" customFormat="1">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -6858,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="1" spans="1:10">
+    <row r="58" spans="1:10" s="5" customFormat="1">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -6883,7 +6356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" spans="1:10">
+    <row r="59" spans="1:10" s="5" customFormat="1">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -6908,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="1" spans="1:10">
+    <row r="60" spans="1:10" s="5" customFormat="1">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -6933,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="1" spans="1:8">
+    <row r="61" spans="1:10" s="5" customFormat="1">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -6957,7 +6430,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="1" spans="1:10">
+    <row r="62" spans="1:10" s="5" customFormat="1">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -6984,7 +6457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" s="5" customFormat="1" spans="1:10">
+    <row r="63" spans="1:10" s="5" customFormat="1">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -7011,7 +6484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" s="5" customFormat="1" spans="1:10">
+    <row r="64" spans="1:10" s="5" customFormat="1">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -7038,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" s="5" customFormat="1" spans="1:10">
+    <row r="65" spans="1:10" s="5" customFormat="1">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -7065,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" s="5" customFormat="1" spans="1:10">
+    <row r="66" spans="1:10" s="5" customFormat="1">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -7090,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" s="5" customFormat="1" spans="1:10">
+    <row r="67" spans="1:10" s="5" customFormat="1">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -7115,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="1" spans="1:10">
+    <row r="68" spans="1:10" s="5" customFormat="1">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -7140,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="1" spans="1:8">
+    <row r="69" spans="1:10" s="5" customFormat="1">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -7164,7 +6637,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:10">
+    <row r="70" spans="1:10" s="5" customFormat="1">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -7191,7 +6664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" s="5" customFormat="1" spans="1:10">
+    <row r="71" spans="1:10" s="5" customFormat="1">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -7218,7 +6691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" s="5" customFormat="1" spans="1:10">
+    <row r="72" spans="1:10" s="5" customFormat="1">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -7245,7 +6718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" s="5" customFormat="1" spans="1:10">
+    <row r="73" spans="1:10" s="5" customFormat="1">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -7272,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" s="5" customFormat="1" spans="1:10">
+    <row r="74" spans="1:10" s="5" customFormat="1">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -7297,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" s="5" customFormat="1" spans="1:10">
+    <row r="75" spans="1:10" s="5" customFormat="1">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -7322,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" s="5" customFormat="1" spans="1:10">
+    <row r="76" spans="1:10" s="5" customFormat="1">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -7347,7 +6820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" s="5" customFormat="1" spans="1:8">
+    <row r="77" spans="1:10" s="5" customFormat="1">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -7371,7 +6844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" s="5" customFormat="1" spans="1:10">
+    <row r="78" spans="1:10" s="5" customFormat="1">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -7398,7 +6871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" s="5" customFormat="1" spans="1:10">
+    <row r="79" spans="1:10" s="5" customFormat="1">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -7425,7 +6898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" s="5" customFormat="1" spans="1:10">
+    <row r="80" spans="1:10" s="5" customFormat="1">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -7452,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" s="5" customFormat="1" spans="1:10">
+    <row r="81" spans="1:10" s="5" customFormat="1">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -7479,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" s="5" customFormat="1" spans="1:10">
+    <row r="82" spans="1:10" s="5" customFormat="1">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -7504,7 +6977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" s="5" customFormat="1" spans="1:10">
+    <row r="83" spans="1:10" s="5" customFormat="1">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -7529,7 +7002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" s="5" customFormat="1" spans="1:10">
+    <row r="84" spans="1:10" s="5" customFormat="1">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -7554,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" s="5" customFormat="1" spans="1:8">
+    <row r="85" spans="1:10" s="5" customFormat="1">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -7578,7 +7051,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" s="5" customFormat="1" spans="1:10">
+    <row r="86" spans="1:10" s="5" customFormat="1">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -7605,7 +7078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" s="5" customFormat="1" spans="1:10">
+    <row r="87" spans="1:10" s="5" customFormat="1">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -7632,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" s="5" customFormat="1" spans="1:10">
+    <row r="88" spans="1:10" s="5" customFormat="1">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -7659,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" s="5" customFormat="1" spans="1:10">
+    <row r="89" spans="1:10" s="5" customFormat="1">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -7686,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" s="5" customFormat="1" spans="1:10">
+    <row r="90" spans="1:10" s="5" customFormat="1">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -7711,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" s="5" customFormat="1" spans="1:10">
+    <row r="91" spans="1:10" s="5" customFormat="1">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -7736,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" s="5" customFormat="1" spans="1:10">
+    <row r="92" spans="1:10" s="5" customFormat="1">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -7761,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" s="5" customFormat="1" spans="1:8">
+    <row r="93" spans="1:10" s="5" customFormat="1">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -7785,7 +7258,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" s="5" customFormat="1" spans="1:10">
+    <row r="94" spans="1:10" s="5" customFormat="1">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -7812,7 +7285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" s="5" customFormat="1" spans="1:10">
+    <row r="95" spans="1:10" s="5" customFormat="1">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -7839,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" s="5" customFormat="1" spans="1:10">
+    <row r="96" spans="1:10" s="5" customFormat="1">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -7866,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" s="5" customFormat="1" spans="1:10">
+    <row r="97" spans="1:10" s="5" customFormat="1">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -7893,7 +7366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" s="5" customFormat="1" spans="1:10">
+    <row r="98" spans="1:10" s="5" customFormat="1">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -7918,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" s="5" customFormat="1" spans="1:10">
+    <row r="99" spans="1:10" s="5" customFormat="1">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -7943,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" s="5" customFormat="1" spans="1:10">
+    <row r="100" spans="1:10" s="5" customFormat="1">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -7968,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" s="5" customFormat="1" spans="1:8">
+    <row r="101" spans="1:10" s="5" customFormat="1">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -7992,7 +7465,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" s="5" customFormat="1" spans="1:10">
+    <row r="102" spans="1:10" s="5" customFormat="1">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -8019,7 +7492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:10">
+    <row r="103" spans="1:10" s="5" customFormat="1">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -8046,7 +7519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" s="5" customFormat="1" spans="1:10">
+    <row r="104" spans="1:10" s="5" customFormat="1">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -8073,7 +7546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" s="5" customFormat="1" spans="1:10">
+    <row r="105" spans="1:10" s="5" customFormat="1">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -8100,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" s="5" customFormat="1" spans="1:10">
+    <row r="106" spans="1:10" s="5" customFormat="1">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -8125,7 +7598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" s="5" customFormat="1" spans="1:10">
+    <row r="107" spans="1:10" s="5" customFormat="1">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -8150,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" s="5" customFormat="1" spans="1:10">
+    <row r="108" spans="1:10" s="5" customFormat="1">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -8175,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" s="5" customFormat="1" spans="1:8">
+    <row r="109" spans="1:10" s="5" customFormat="1">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -8199,7 +7672,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="110" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -8226,7 +7699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="111" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -8253,7 +7726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" s="5" customFormat="1" spans="1:10">
+    <row r="112" spans="1:10" s="5" customFormat="1">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -8280,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="113" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -8307,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" s="5" customFormat="1" spans="1:10">
+    <row r="114" spans="1:10" s="5" customFormat="1">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -8332,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" s="5" customFormat="1" spans="1:10">
+    <row r="115" spans="1:10" s="5" customFormat="1">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -8357,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" s="5" customFormat="1" spans="1:10">
+    <row r="116" spans="1:10" s="5" customFormat="1">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -8382,7 +7855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" s="5" customFormat="1" spans="1:8">
+    <row r="117" spans="1:10" s="5" customFormat="1">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -8406,7 +7879,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" s="5" customFormat="1" spans="1:10">
+    <row r="118" spans="1:10" s="5" customFormat="1">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -8433,7 +7906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" s="5" customFormat="1" spans="1:10">
+    <row r="119" spans="1:10" s="5" customFormat="1">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -8460,7 +7933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" s="5" customFormat="1" spans="1:10">
+    <row r="120" spans="1:10" s="5" customFormat="1">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -8487,7 +7960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" s="5" customFormat="1" spans="1:10">
+    <row r="121" spans="1:10" s="5" customFormat="1">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -8514,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" s="5" customFormat="1" spans="1:10">
+    <row r="122" spans="1:10" s="5" customFormat="1">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -8539,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" s="5" customFormat="1" spans="1:10">
+    <row r="123" spans="1:10" s="5" customFormat="1">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -8564,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" s="5" customFormat="1" spans="1:10">
+    <row r="124" spans="1:10" s="5" customFormat="1">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -8588,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" s="5" customFormat="1" spans="1:8">
+    <row r="125" spans="1:10" s="5" customFormat="1">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -8612,7 +8085,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="126" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -8639,7 +8112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="127" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -8666,7 +8139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" s="5" customFormat="1" spans="1:10">
+    <row r="128" spans="1:10" s="5" customFormat="1">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -8693,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="129" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -8720,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" s="5" customFormat="1" spans="1:10">
+    <row r="130" spans="1:10" s="5" customFormat="1">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -8745,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" s="5" customFormat="1" spans="1:10">
+    <row r="131" spans="1:10" s="5" customFormat="1">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -8770,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" s="5" customFormat="1" spans="1:10">
+    <row r="132" spans="1:10" s="5" customFormat="1">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -8795,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" s="5" customFormat="1" spans="1:8">
+    <row r="133" spans="1:10" s="5" customFormat="1">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -8819,7 +8292,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" s="5" customFormat="1" spans="1:10">
+    <row r="134" spans="1:10" s="5" customFormat="1">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -8846,7 +8319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" s="5" customFormat="1" spans="1:10">
+    <row r="135" spans="1:10" s="5" customFormat="1">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -8873,7 +8346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" s="5" customFormat="1" spans="1:10">
+    <row r="136" spans="1:10" s="5" customFormat="1">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -8900,7 +8373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" s="5" customFormat="1" spans="1:10">
+    <row r="137" spans="1:10" s="5" customFormat="1">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -8927,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" s="5" customFormat="1" spans="1:10">
+    <row r="138" spans="1:10" s="5" customFormat="1">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -8952,7 +8425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" s="5" customFormat="1" spans="1:10">
+    <row r="139" spans="1:10" s="5" customFormat="1">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -8977,7 +8450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" s="5" customFormat="1" spans="1:10">
+    <row r="140" spans="1:10" s="5" customFormat="1">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -9001,7 +8474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" s="5" customFormat="1" spans="1:8">
+    <row r="141" spans="1:10" s="5" customFormat="1">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -9025,7 +8498,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="142" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="142" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -9052,7 +8525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="143" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -9079,7 +8552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" s="5" customFormat="1" spans="1:10">
+    <row r="144" spans="1:10" s="5" customFormat="1">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -9106,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="145" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -9133,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" s="5" customFormat="1" spans="1:10">
+    <row r="146" spans="1:10" s="5" customFormat="1">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -9158,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" s="5" customFormat="1" spans="1:10">
+    <row r="147" spans="1:10" s="5" customFormat="1">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -9183,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" s="5" customFormat="1" spans="1:10">
+    <row r="148" spans="1:10" s="5" customFormat="1">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -9208,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" s="5" customFormat="1" spans="1:8">
+    <row r="149" spans="1:10" s="5" customFormat="1">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -9232,7 +8705,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="150" s="5" customFormat="1" spans="1:10">
+    <row r="150" spans="1:10" s="5" customFormat="1">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -9259,7 +8732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" s="5" customFormat="1" spans="1:10">
+    <row r="151" spans="1:10" s="5" customFormat="1">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -9286,7 +8759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" s="5" customFormat="1" spans="1:10">
+    <row r="152" spans="1:10" s="5" customFormat="1">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -9313,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" s="5" customFormat="1" spans="1:10">
+    <row r="153" spans="1:10" s="5" customFormat="1">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -9340,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" s="5" customFormat="1" spans="1:10">
+    <row r="154" spans="1:10" s="5" customFormat="1">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -9367,7 +8840,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="155" s="5" customFormat="1" spans="1:10">
+    <row r="155" spans="1:10" s="5" customFormat="1">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -9394,7 +8867,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="156" s="5" customFormat="1" spans="1:10">
+    <row r="156" spans="1:10" s="5" customFormat="1">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -9421,7 +8894,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="157" s="5" customFormat="1" spans="1:10">
+    <row r="157" spans="1:10" s="5" customFormat="1">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -9448,7 +8921,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="158" s="5" customFormat="1" spans="1:10">
+    <row r="158" spans="1:10" s="5" customFormat="1">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -9475,7 +8948,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="159" s="5" customFormat="1" spans="1:10">
+    <row r="159" spans="1:10" s="5" customFormat="1">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -9502,7 +8975,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="160" s="5" customFormat="1" spans="1:10">
+    <row r="160" spans="1:10" s="5" customFormat="1">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -9529,7 +9002,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="161" s="5" customFormat="1" spans="1:10">
+    <row r="161" spans="1:10" s="5" customFormat="1">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -9556,7 +9029,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="162" s="5" customFormat="1" spans="1:10">
+    <row r="162" spans="1:10" s="5" customFormat="1">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -9583,7 +9056,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="163" s="5" customFormat="1" spans="1:10">
+    <row r="163" spans="1:10" s="5" customFormat="1">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -9608,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" s="5" customFormat="1" spans="1:10">
+    <row r="164" spans="1:10" s="5" customFormat="1">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -9633,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" s="5" customFormat="1" spans="1:10">
+    <row r="165" spans="1:10" s="5" customFormat="1">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -9657,7 +9130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" s="5" customFormat="1" spans="1:8">
+    <row r="166" spans="1:10" s="5" customFormat="1">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -9681,7 +9154,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="167" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="167" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -9708,7 +9181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="168" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -9735,7 +9208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" s="5" customFormat="1" spans="1:10">
+    <row r="169" spans="1:10" s="5" customFormat="1">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -9762,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="170" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -9789,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" s="5" customFormat="1" spans="1:10">
+    <row r="171" spans="1:10" s="5" customFormat="1">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -9814,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" s="5" customFormat="1" spans="1:10">
+    <row r="172" spans="1:10" s="5" customFormat="1">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -9839,7 +9312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" s="5" customFormat="1" spans="1:10">
+    <row r="173" spans="1:10" s="5" customFormat="1">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -9864,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" s="5" customFormat="1" spans="1:8">
+    <row r="174" spans="1:10" s="5" customFormat="1">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -9888,7 +9361,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="175" s="5" customFormat="1" spans="1:10">
+    <row r="175" spans="1:10" s="5" customFormat="1">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -9915,7 +9388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" s="5" customFormat="1" spans="1:10">
+    <row r="176" spans="1:10" s="5" customFormat="1">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -9942,7 +9415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" s="5" customFormat="1" spans="1:10">
+    <row r="177" spans="1:10" s="5" customFormat="1">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -9969,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" s="5" customFormat="1" spans="1:10">
+    <row r="178" spans="1:10" s="5" customFormat="1">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -9996,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" s="5" customFormat="1" spans="1:10">
+    <row r="179" spans="1:10" s="5" customFormat="1">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -10021,7 +9494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" s="5" customFormat="1" spans="1:10">
+    <row r="180" spans="1:10" s="5" customFormat="1">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -10046,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" s="5" customFormat="1" spans="1:10">
+    <row r="181" spans="1:10" s="5" customFormat="1">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -10070,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" s="5" customFormat="1" spans="1:8">
+    <row r="182" spans="1:10" s="5" customFormat="1">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -10094,7 +9567,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="183" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="183" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -10121,7 +9594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="184" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -10148,7 +9621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" s="5" customFormat="1" spans="1:10">
+    <row r="185" spans="1:10" s="5" customFormat="1">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -10175,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="186" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -10202,7 +9675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" s="5" customFormat="1" spans="1:10">
+    <row r="187" spans="1:10" s="5" customFormat="1">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -10227,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" s="5" customFormat="1" spans="1:10">
+    <row r="188" spans="1:10" s="5" customFormat="1">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -10252,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" s="5" customFormat="1" spans="1:10">
+    <row r="189" spans="1:10" s="5" customFormat="1">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -10277,7 +9750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" s="5" customFormat="1" spans="1:8">
+    <row r="190" spans="1:10" s="5" customFormat="1">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -10301,7 +9774,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="191" s="5" customFormat="1" spans="1:10">
+    <row r="191" spans="1:10" s="5" customFormat="1">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -10328,7 +9801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" s="5" customFormat="1" spans="1:10">
+    <row r="192" spans="1:10" s="5" customFormat="1">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -10355,7 +9828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" s="5" customFormat="1" spans="1:10">
+    <row r="193" spans="1:10" s="5" customFormat="1">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -10382,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" s="5" customFormat="1" spans="1:10">
+    <row r="194" spans="1:10" s="5" customFormat="1">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -10409,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" s="5" customFormat="1" spans="1:10">
+    <row r="195" spans="1:10" s="5" customFormat="1">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -10434,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" s="5" customFormat="1" spans="1:10">
+    <row r="196" spans="1:10" s="5" customFormat="1">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -10459,7 +9932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" s="5" customFormat="1" spans="1:10">
+    <row r="197" spans="1:10" s="5" customFormat="1">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -10486,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" s="5" customFormat="1" spans="1:8">
+    <row r="198" spans="1:10" s="5" customFormat="1">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -10510,7 +9983,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="199" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="199" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -10537,7 +10010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="200" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -10564,7 +10037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" s="5" customFormat="1" spans="1:10">
+    <row r="201" spans="1:10" s="5" customFormat="1">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -10591,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="202" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -10618,7 +10091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" s="5" customFormat="1" spans="1:10">
+    <row r="203" spans="1:10" s="5" customFormat="1">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -10643,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" s="5" customFormat="1" spans="1:10">
+    <row r="204" spans="1:10" s="5" customFormat="1">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -10668,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" s="5" customFormat="1" spans="1:10">
+    <row r="205" spans="1:10" s="5" customFormat="1">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -10695,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" s="5" customFormat="1" spans="1:8">
+    <row r="206" spans="1:10" s="5" customFormat="1">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -10719,7 +10192,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="207" s="5" customFormat="1" spans="1:10">
+    <row r="207" spans="1:10" s="5" customFormat="1">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -10746,7 +10219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" s="5" customFormat="1" spans="1:10">
+    <row r="208" spans="1:10" s="5" customFormat="1">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -10773,7 +10246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" s="5" customFormat="1" spans="1:10">
+    <row r="209" spans="1:10" s="5" customFormat="1">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -10800,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" s="5" customFormat="1" spans="1:10">
+    <row r="210" spans="1:10" s="5" customFormat="1">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -10827,7 +10300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" s="5" customFormat="1" spans="1:10">
+    <row r="211" spans="1:10" s="5" customFormat="1">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -10854,7 +10327,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="212" s="5" customFormat="1" spans="1:10">
+    <row r="212" spans="1:10" s="5" customFormat="1">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -10881,7 +10354,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="213" s="5" customFormat="1" spans="1:10">
+    <row r="213" spans="1:10" s="5" customFormat="1">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -10908,7 +10381,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="214" s="5" customFormat="1" spans="1:10">
+    <row r="214" spans="1:10" s="5" customFormat="1">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -10935,7 +10408,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="215" s="5" customFormat="1" spans="1:10">
+    <row r="215" spans="1:10" s="5" customFormat="1">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -10962,7 +10435,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="216" s="5" customFormat="1" spans="1:10">
+    <row r="216" spans="1:10" s="5" customFormat="1">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -10989,7 +10462,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="217" s="5" customFormat="1" spans="1:10">
+    <row r="217" spans="1:10" s="5" customFormat="1">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -11016,7 +10489,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="218" s="5" customFormat="1" spans="1:10">
+    <row r="218" spans="1:10" s="5" customFormat="1">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -11043,7 +10516,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="219" s="5" customFormat="1" spans="1:10">
+    <row r="219" spans="1:10" s="5" customFormat="1">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -11070,7 +10543,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="220" s="5" customFormat="1" spans="1:10">
+    <row r="220" spans="1:10" s="5" customFormat="1">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -11095,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" s="5" customFormat="1" spans="1:10">
+    <row r="221" spans="1:10" s="5" customFormat="1">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -11120,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="1" spans="1:10">
+    <row r="222" spans="1:10" s="5" customFormat="1">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -11144,7 +10617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" s="5" customFormat="1" spans="1:8">
+    <row r="223" spans="1:10" s="5" customFormat="1">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -11168,7 +10641,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="224" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="224" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -11195,7 +10668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="225" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -11222,7 +10695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" s="5" customFormat="1" spans="1:10">
+    <row r="226" spans="1:10" s="5" customFormat="1">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -11249,7 +10722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="227" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -11276,7 +10749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" s="5" customFormat="1" spans="1:10">
+    <row r="228" spans="1:10" s="5" customFormat="1">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -11301,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" s="5" customFormat="1" spans="1:10">
+    <row r="229" spans="1:10" s="5" customFormat="1">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -11326,7 +10799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" s="5" customFormat="1" spans="1:10">
+    <row r="230" spans="1:10" s="5" customFormat="1">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -11351,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" s="5" customFormat="1" spans="1:8">
+    <row r="231" spans="1:10" s="5" customFormat="1">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -11375,7 +10848,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="232" s="5" customFormat="1" spans="1:10">
+    <row r="232" spans="1:10" s="5" customFormat="1">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -11402,7 +10875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" s="5" customFormat="1" spans="1:10">
+    <row r="233" spans="1:10" s="5" customFormat="1">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -11429,7 +10902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" s="5" customFormat="1" spans="1:10">
+    <row r="234" spans="1:10" s="5" customFormat="1">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -11456,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" s="5" customFormat="1" spans="1:10">
+    <row r="235" spans="1:10" s="5" customFormat="1">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -11483,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" s="5" customFormat="1" spans="1:10">
+    <row r="236" spans="1:10" s="5" customFormat="1">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -11508,7 +10981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" s="5" customFormat="1" spans="1:10">
+    <row r="237" spans="1:10" s="5" customFormat="1">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -11533,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" s="5" customFormat="1" spans="1:10">
+    <row r="238" spans="1:10" s="5" customFormat="1">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -11557,7 +11030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" s="5" customFormat="1" spans="1:8">
+    <row r="239" spans="1:10" s="5" customFormat="1">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -11581,7 +11054,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="240" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="240" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -11608,7 +11081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="241" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -11635,7 +11108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" s="5" customFormat="1" spans="1:10">
+    <row r="242" spans="1:10" s="5" customFormat="1">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -11662,7 +11135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="243" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -11689,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" s="5" customFormat="1" spans="1:10">
+    <row r="244" spans="1:10" s="5" customFormat="1">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -11714,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" s="5" customFormat="1" spans="1:10">
+    <row r="245" spans="1:10" s="5" customFormat="1">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -11739,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" s="5" customFormat="1" spans="1:10">
+    <row r="246" spans="1:10" s="5" customFormat="1">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -11764,7 +11237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" s="5" customFormat="1" spans="1:8">
+    <row r="247" spans="1:10" s="5" customFormat="1">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -11788,7 +11261,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="248" s="5" customFormat="1" spans="1:10">
+    <row r="248" spans="1:10" s="5" customFormat="1">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -11815,7 +11288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" s="5" customFormat="1" spans="1:10">
+    <row r="249" spans="1:10" s="5" customFormat="1">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -11842,7 +11315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" s="5" customFormat="1" spans="1:10">
+    <row r="250" spans="1:10" s="5" customFormat="1">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -11869,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" s="5" customFormat="1" spans="1:10">
+    <row r="251" spans="1:10" s="5" customFormat="1">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -11896,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" s="10" customFormat="1" spans="1:8">
+    <row r="252" spans="1:10" s="10" customFormat="1">
       <c r="A252" s="10">
         <v>251</v>
       </c>
@@ -11919,7 +11392,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="253" s="10" customFormat="1" spans="1:8">
+    <row r="253" spans="1:10" s="10" customFormat="1">
       <c r="A253" s="10">
         <v>252</v>
       </c>
@@ -11942,7 +11415,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="254" s="10" customFormat="1" spans="1:8">
+    <row r="254" spans="1:10" s="10" customFormat="1">
       <c r="A254" s="10">
         <v>253</v>
       </c>
@@ -11965,7 +11438,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" s="10" customFormat="1" spans="1:8">
+    <row r="255" spans="1:10" s="10" customFormat="1">
       <c r="A255" s="10">
         <v>254</v>
       </c>
@@ -11988,7 +11461,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="256" s="10" customFormat="1" spans="1:8">
+    <row r="256" spans="1:10" s="10" customFormat="1">
       <c r="A256" s="10">
         <v>255</v>
       </c>
@@ -12011,7 +11484,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="257" s="10" customFormat="1" spans="1:8">
+    <row r="257" spans="1:10" s="10" customFormat="1">
       <c r="A257" s="10">
         <v>256</v>
       </c>
@@ -12034,7 +11507,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="258" s="10" customFormat="1" spans="1:8">
+    <row r="258" spans="1:10" s="10" customFormat="1">
       <c r="A258" s="10">
         <v>257</v>
       </c>
@@ -12057,7 +11530,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="259" s="10" customFormat="1" spans="1:8">
+    <row r="259" spans="1:10" s="10" customFormat="1">
       <c r="A259" s="10">
         <v>258</v>
       </c>
@@ -12080,7 +11553,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="260" s="10" customFormat="1" spans="1:8">
+    <row r="260" spans="1:10" s="10" customFormat="1">
       <c r="A260" s="10">
         <v>259</v>
       </c>
@@ -12103,7 +11576,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="261" s="10" customFormat="1" spans="1:8">
+    <row r="261" spans="1:10" s="10" customFormat="1">
       <c r="A261" s="10">
         <v>260</v>
       </c>
@@ -12126,7 +11599,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="262" s="10" customFormat="1" spans="1:8">
+    <row r="262" spans="1:10" s="10" customFormat="1">
       <c r="A262" s="10">
         <v>261</v>
       </c>
@@ -12149,7 +11622,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="263" s="10" customFormat="1" spans="1:8">
+    <row r="263" spans="1:10" s="10" customFormat="1">
       <c r="A263" s="10">
         <v>262</v>
       </c>
@@ -12172,7 +11645,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:10">
+    <row r="264" spans="1:10" s="5" customFormat="1">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -12197,7 +11670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:10">
+    <row r="265" spans="1:10" s="5" customFormat="1">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -12222,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:10">
+    <row r="266" spans="1:10" s="5" customFormat="1">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -12246,7 +11719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:8">
+    <row r="267" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -12270,7 +11743,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:10">
+    <row r="268" spans="1:10" s="5" customFormat="1">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -12297,7 +11770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" spans="1:10">
+    <row r="269" spans="1:10" s="5" customFormat="1">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -12324,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" spans="1:10">
+    <row r="270" spans="1:10" s="5" customFormat="1">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -12348,7 +11821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="271" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -12375,7 +11848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" spans="1:10">
+    <row r="272" spans="1:10" s="5" customFormat="1">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -12400,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" spans="1:10">
+    <row r="273" spans="1:10" s="5" customFormat="1">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -12425,7 +11898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" spans="1:10">
+    <row r="274" spans="1:10" s="5" customFormat="1">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -12449,7 +11922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:8">
+    <row r="275" spans="1:10" s="5" customFormat="1">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -12473,7 +11946,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="276" s="5" customFormat="1" spans="1:10">
+    <row r="276" spans="1:10" s="5" customFormat="1">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -12500,7 +11973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" spans="1:10">
+    <row r="277" spans="1:10" s="5" customFormat="1">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -12527,7 +12000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" s="5" customFormat="1" spans="1:10">
+    <row r="278" spans="1:10" s="5" customFormat="1">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -12551,7 +12024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" s="5" customFormat="1" spans="1:10">
+    <row r="279" spans="1:10" s="5" customFormat="1">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -12578,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" s="5" customFormat="1" spans="1:10">
+    <row r="280" spans="1:10" s="5" customFormat="1">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -12603,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" s="5" customFormat="1" spans="1:10">
+    <row r="281" spans="1:10" s="5" customFormat="1">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -12628,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" s="5" customFormat="1" spans="1:10">
+    <row r="282" spans="1:10" s="5" customFormat="1">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -12652,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="283" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -12679,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" s="5" customFormat="1" spans="1:8">
+    <row r="284" spans="1:10" s="5" customFormat="1">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -12703,7 +12176,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="285" s="5" customFormat="1" spans="1:10">
+    <row r="285" spans="1:10" s="5" customFormat="1">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -12728,7 +12201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" s="5" customFormat="1" spans="1:10">
+    <row r="286" spans="1:10" s="5" customFormat="1">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -12755,7 +12228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="287" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -12782,7 +12255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" s="5" customFormat="1" spans="1:10">
+    <row r="288" spans="1:10" s="5" customFormat="1">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -12807,7 +12280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" s="5" customFormat="1" spans="1:10">
+    <row r="289" spans="1:10" s="5" customFormat="1">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -12832,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" s="5" customFormat="1" spans="1:10">
+    <row r="290" spans="1:10" s="5" customFormat="1">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -12856,7 +12329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="291" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -12883,7 +12356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" s="5" customFormat="1" spans="1:8">
+    <row r="292" spans="1:10" s="5" customFormat="1">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -12907,7 +12380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="293" s="5" customFormat="1" spans="1:10">
+    <row r="293" spans="1:10" s="5" customFormat="1">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -12932,7 +12405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" s="5" customFormat="1" spans="1:10">
+    <row r="294" spans="1:10" s="5" customFormat="1">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -12959,7 +12432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="295" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -12986,7 +12459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" s="5" customFormat="1" spans="1:10">
+    <row r="296" spans="1:10" s="5" customFormat="1">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -13011,7 +12484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" s="5" customFormat="1" spans="1:10">
+    <row r="297" spans="1:10" s="5" customFormat="1">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -13036,7 +12509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" s="5" customFormat="1" spans="1:10">
+    <row r="298" spans="1:10" s="5" customFormat="1">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -13060,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="299" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -13087,7 +12560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:8">
+    <row r="300" spans="1:10" s="5" customFormat="1">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -13111,7 +12584,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:10">
+    <row r="301" spans="1:10" s="5" customFormat="1">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -13136,7 +12609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:10">
+    <row r="302" spans="1:10" s="5" customFormat="1">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -13163,7 +12636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="303" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -13190,7 +12663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:10">
+    <row r="304" spans="1:10" s="5" customFormat="1">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -13215,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:10">
+    <row r="305" spans="1:10" s="5" customFormat="1">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -13240,7 +12713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:10">
+    <row r="306" spans="1:10" s="5" customFormat="1">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -13264,7 +12737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="307" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -13291,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:8">
+    <row r="308" spans="1:10" s="5" customFormat="1">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -13315,7 +12788,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:10">
+    <row r="309" spans="1:10" s="5" customFormat="1">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -13340,7 +12813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:10">
+    <row r="310" spans="1:10" s="5" customFormat="1">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -13367,7 +12840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="311" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -13394,7 +12867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:10">
+    <row r="312" spans="1:10" s="5" customFormat="1">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -13419,7 +12892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" spans="1:10">
+    <row r="313" spans="1:10" s="5" customFormat="1">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -13444,7 +12917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" spans="1:10">
+    <row r="314" spans="1:10" s="5" customFormat="1">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -13469,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="315" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -13495,7 +12968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" spans="1:8">
+    <row r="316" spans="1:10" s="5" customFormat="1">
       <c r="A316" s="5">
         <v>315</v>
       </c>
@@ -13518,7 +12991,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="317" s="5" customFormat="1" spans="1:10">
+    <row r="317" spans="1:10" s="5" customFormat="1">
       <c r="A317" s="5">
         <v>316</v>
       </c>
@@ -13543,7 +13016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" spans="1:10">
+    <row r="318" spans="1:10" s="5" customFormat="1">
       <c r="A318" s="5">
         <v>317</v>
       </c>
@@ -13569,7 +13042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="319" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -13595,7 +13068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" spans="1:10">
+    <row r="320" spans="1:10" s="5" customFormat="1">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -13620,7 +13093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" spans="1:10">
+    <row r="321" spans="1:10" s="5" customFormat="1">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -13645,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" spans="1:10">
+    <row r="322" spans="1:10" s="5" customFormat="1">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -13670,7 +13143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="323" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="5">
         <v>322</v>
       </c>
@@ -13696,7 +13169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:8">
+    <row r="324" spans="1:10" s="5" customFormat="1">
       <c r="A324" s="5">
         <v>323</v>
       </c>
@@ -13719,7 +13192,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:10">
+    <row r="325" spans="1:10" s="5" customFormat="1">
       <c r="A325" s="5">
         <v>324</v>
       </c>
@@ -13744,7 +13217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:10">
+    <row r="326" spans="1:10" s="5" customFormat="1">
       <c r="A326" s="5">
         <v>325</v>
       </c>
@@ -13770,7 +13243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" ht="16.5" spans="1:10">
+    <row r="327" spans="1:10" s="5" customFormat="1" ht="16.5">
       <c r="A327" s="5">
         <v>326</v>
       </c>
@@ -13796,7 +13269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:10">
+    <row r="328" spans="1:10" s="5" customFormat="1">
       <c r="A328" s="5">
         <v>327</v>
       </c>
@@ -13821,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:10">
+    <row r="329" spans="1:10" s="5" customFormat="1">
       <c r="A329" s="5">
         <v>328</v>
       </c>
@@ -13846,7 +13319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:10">
+    <row r="330" spans="1:10" s="5" customFormat="1">
       <c r="A330" s="5">
         <v>329</v>
       </c>
@@ -13871,7 +13344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" s="5" customFormat="1" spans="1:10">
+    <row r="331" spans="1:10" s="5" customFormat="1">
       <c r="A331" s="5">
         <v>330</v>
       </c>
@@ -13897,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" s="5" customFormat="1" spans="1:8">
+    <row r="332" spans="1:10" s="5" customFormat="1">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -13920,7 +13393,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="333" s="5" customFormat="1" spans="1:10">
+    <row r="333" spans="1:10" s="5" customFormat="1">
       <c r="A333" s="5">
         <v>332</v>
       </c>
@@ -13946,7 +13419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" s="5" customFormat="1" spans="1:10">
+    <row r="334" spans="1:10" s="5" customFormat="1">
       <c r="A334" s="5">
         <v>333</v>
       </c>
@@ -13971,7 +13444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" s="5" customFormat="1" spans="1:10">
+    <row r="335" spans="1:10" s="5" customFormat="1">
       <c r="A335" s="5">
         <v>334</v>
       </c>
@@ -13996,7 +13469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" s="11" customFormat="1" spans="1:10">
+    <row r="336" spans="1:10" s="11" customFormat="1">
       <c r="A336" s="11">
         <v>335</v>
       </c>
@@ -14021,7 +13494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" s="11" customFormat="1" spans="1:8">
+    <row r="337" spans="1:10" s="11" customFormat="1">
       <c r="A337" s="11">
         <v>336</v>
       </c>
@@ -14044,7 +13517,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="338" s="11" customFormat="1" spans="1:10">
+    <row r="338" spans="1:10" s="11" customFormat="1">
       <c r="A338" s="11">
         <v>337</v>
       </c>
@@ -14069,7 +13542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" s="11" customFormat="1" spans="1:10">
+    <row r="339" spans="1:10" s="11" customFormat="1">
       <c r="A339" s="11">
         <v>338</v>
       </c>
@@ -14094,7 +13567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" s="11" customFormat="1" spans="1:8">
+    <row r="340" spans="1:10" s="11" customFormat="1">
       <c r="A340" s="11">
         <v>339</v>
       </c>
@@ -14117,7 +13590,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="341" s="11" customFormat="1" spans="1:10">
+    <row r="341" spans="1:10" s="11" customFormat="1">
       <c r="A341" s="11">
         <v>340</v>
       </c>
@@ -14143,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" s="11" customFormat="1" spans="1:10">
+    <row r="342" spans="1:10" s="11" customFormat="1">
       <c r="A342" s="11">
         <v>341</v>
       </c>
@@ -14169,7 +13642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" s="11" customFormat="1" spans="1:10">
+    <row r="343" spans="1:10" s="11" customFormat="1">
       <c r="A343" s="11">
         <v>342</v>
       </c>
@@ -14194,7 +13667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" s="11" customFormat="1" spans="1:8">
+    <row r="344" spans="1:10" s="11" customFormat="1">
       <c r="A344" s="11">
         <v>343</v>
       </c>
@@ -14217,7 +13690,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="345" s="11" customFormat="1" spans="1:10">
+    <row r="345" spans="1:10" s="11" customFormat="1">
       <c r="A345" s="11">
         <v>344</v>
       </c>
@@ -14294,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:10">
       <c r="A348" s="11">
         <v>347</v>
       </c>
@@ -14343,7 +13816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:10">
       <c r="A350" s="11">
         <v>349</v>
       </c>
@@ -14519,7 +13992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:10">
       <c r="A357" s="11">
         <v>356</v>
       </c>
@@ -14588,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:10">
       <c r="A360" s="11">
         <v>359</v>
       </c>
@@ -14683,7 +14156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:10">
       <c r="A364" s="11">
         <v>363</v>
       </c>
@@ -14784,7 +14257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:10">
       <c r="A368" s="11">
         <v>367</v>
       </c>
@@ -14807,7 +14280,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:15">
       <c r="A369" s="11">
         <v>368</v>
       </c>
@@ -14833,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:15">
       <c r="A370" s="11">
         <v>369</v>
       </c>
@@ -14856,7 +14329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:15">
       <c r="A371" s="11">
         <v>370</v>
       </c>
@@ -14882,7 +14355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:15">
       <c r="A372" s="11">
         <v>371</v>
       </c>
@@ -14908,7 +14381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:15">
       <c r="A373" s="11">
         <v>372</v>
       </c>
@@ -14934,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:15">
       <c r="A374" s="11">
         <v>373</v>
       </c>
@@ -14960,7 +14433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:15">
       <c r="A375" s="11">
         <v>374</v>
       </c>
@@ -14986,7 +14459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:15">
       <c r="A376" s="11">
         <v>375</v>
       </c>
@@ -15009,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:15">
       <c r="A377" s="11">
         <v>376</v>
       </c>
@@ -15032,7 +14505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:15">
       <c r="A378" s="11">
         <v>377</v>
       </c>
@@ -15055,7 +14528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:15">
       <c r="A379" s="11">
         <v>378</v>
       </c>
@@ -15081,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:15">
       <c r="A380" s="11">
         <v>379</v>
       </c>
@@ -15104,7 +14577,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:15">
       <c r="A381" s="11">
         <v>380</v>
       </c>
@@ -15130,7 +14603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:15">
       <c r="A382" s="11">
         <v>381</v>
       </c>
@@ -15153,7 +14626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:15">
       <c r="A383" s="11">
         <v>382</v>
       </c>
@@ -15208,7 +14681,7 @@
         <v>354</v>
       </c>
       <c r="O384" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:15">
@@ -15524,22 +14997,21 @@
   <sortState ref="G2:G12">
     <sortCondition ref="G12"/>
   </sortState>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -15626,21 +15098,20 @@
       <c r="B17" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
@@ -15831,7 +15302,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>